--- a/biology/Botanique/Parc_national_de_Chatsk/Parc_national_de_Chatsk.xlsx
+++ b/biology/Botanique/Parc_national_de_Chatsk/Parc_national_de_Chatsk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de Chatsk (en ukrainien : Шацький національний природний парк) est un parc national situé dans l’oblast de Volhynie, au nord-ouest de l’Ukraine.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été créé par le décret présidentiel du 28 décembre 1983 pour protéger la faune et la flore autour des lacs de la région, le plus grand étant le lac de Chatsk de la réserve naturelle des lacs de Chatsk. Il fait partie de la réserve de biosphère transfrontière de Polésie occidentale.
 			Lac Krymn,
@@ -550,7 +564,9 @@
           <t>La faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cigogne,
@@ -584,7 +600,9 @@
           <t>Voir Aussi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des parcs nationaux de l'Ukraine.</t>
         </is>
